--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vegfc-Kdr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H2">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I2">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J2">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>148.067422587639</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N2">
-        <v>148.067422587639</v>
+        <v>460.154182</v>
       </c>
       <c r="O2">
-        <v>0.9612238938119871</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P2">
-        <v>0.9612238938119871</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q2">
-        <v>639.1951924277346</v>
+        <v>678.8600962391434</v>
       </c>
       <c r="R2">
-        <v>639.1951924277346</v>
+        <v>6109.74086615229</v>
       </c>
       <c r="S2">
-        <v>0.4660551278299773</v>
+        <v>0.4357681485511704</v>
       </c>
       <c r="T2">
-        <v>0.4660551278299773</v>
+        <v>0.4443304903398886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H3">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I3">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J3">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.99674646997622</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N3">
-        <v>2.99674646997622</v>
+        <v>0.189184</v>
       </c>
       <c r="O3">
-        <v>0.01945427468309524</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P3">
-        <v>0.01945427468309524</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q3">
-        <v>12.93671425529018</v>
+        <v>0.2791009480533334</v>
       </c>
       <c r="R3">
-        <v>12.93671425529018</v>
+        <v>2.51190853248</v>
       </c>
       <c r="S3">
-        <v>0.009432520906562981</v>
+        <v>0.0001791581270807719</v>
       </c>
       <c r="T3">
-        <v>0.009432520906562981</v>
+        <v>0.0001826783777539622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H4">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I4">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J4">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.91615214872979</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N4">
-        <v>1.91615214872979</v>
+        <v>17.168938</v>
       </c>
       <c r="O4">
-        <v>0.01243927392906491</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P4">
-        <v>0.01243927392906491</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q4">
-        <v>8.271875204035624</v>
+        <v>25.32913392712333</v>
       </c>
       <c r="R4">
-        <v>8.271875204035624</v>
+        <v>227.96220534411</v>
       </c>
       <c r="S4">
-        <v>0.006031256025202807</v>
+        <v>0.01625906406485692</v>
       </c>
       <c r="T4">
-        <v>0.006031256025202807</v>
+        <v>0.01657853593114828</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.31691982785345</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H5">
-        <v>4.31691982785345</v>
+        <v>13.277595</v>
       </c>
       <c r="I5">
-        <v>0.4848559537796264</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J5">
-        <v>0.4848559537796264</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.06019270601575</v>
+        <v>1.951202</v>
       </c>
       <c r="N5">
-        <v>1.06019270601575</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O5">
-        <v>0.006882557575852624</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P5">
-        <v>0.006882557575852624</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q5">
-        <v>4.576766913944995</v>
+        <v>8.635756639729999</v>
       </c>
       <c r="R5">
-        <v>4.576766913944995</v>
+        <v>77.72180975757</v>
       </c>
       <c r="S5">
-        <v>0.003337049017883217</v>
+        <v>0.00554339208193488</v>
       </c>
       <c r="T5">
-        <v>0.003337049017883217</v>
+        <v>0.005652313346217754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.12370466321776</v>
+        <v>4.425865000000001</v>
       </c>
       <c r="H6">
-        <v>4.12370466321776</v>
+        <v>13.277595</v>
       </c>
       <c r="I6">
-        <v>0.4631549431818207</v>
+        <v>0.4619841037548157</v>
       </c>
       <c r="J6">
-        <v>0.4631549431818207</v>
+        <v>0.4696223785602887</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>148.067422587639</v>
+        <v>1.490433</v>
       </c>
       <c r="N6">
-        <v>148.067422587639</v>
+        <v>2.980866</v>
       </c>
       <c r="O6">
-        <v>0.9612238938119871</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P6">
-        <v>0.9612238938119871</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q6">
-        <v>610.5863209952815</v>
+        <v>6.596455249545002</v>
       </c>
       <c r="R6">
-        <v>610.5863209952815</v>
+        <v>39.57873149727001</v>
       </c>
       <c r="S6">
-        <v>0.4451955979234994</v>
+        <v>0.004234340929772751</v>
       </c>
       <c r="T6">
-        <v>0.4451955979234994</v>
+        <v>0.002878360565280058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H7">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I7">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J7">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.99674646997622</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N7">
-        <v>2.99674646997622</v>
+        <v>460.154182</v>
       </c>
       <c r="O7">
-        <v>0.01945427468309524</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P7">
-        <v>0.01945427468309524</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q7">
-        <v>12.3576973927223</v>
+        <v>718.8843069895034</v>
       </c>
       <c r="R7">
-        <v>12.3576973927223</v>
+        <v>6469.95876290553</v>
       </c>
       <c r="S7">
-        <v>0.00901034348549251</v>
+        <v>0.4614601524154867</v>
       </c>
       <c r="T7">
-        <v>0.00901034348549251</v>
+        <v>0.4705273124637651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H8">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I8">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J8">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.91615214872979</v>
+        <v>0.06306133333333333</v>
       </c>
       <c r="N8">
-        <v>1.91615214872979</v>
+        <v>0.189184</v>
       </c>
       <c r="O8">
-        <v>0.01243927392906491</v>
+        <v>0.0003878014971178633</v>
       </c>
       <c r="P8">
-        <v>0.01243927392906491</v>
+        <v>0.0003889899333885992</v>
       </c>
       <c r="Q8">
-        <v>7.901645551151765</v>
+        <v>0.2955561723733334</v>
       </c>
       <c r="R8">
-        <v>7.901645551151765</v>
+        <v>2.66000555136</v>
       </c>
       <c r="S8">
-        <v>0.005761311209839162</v>
+        <v>0.0001897209259190682</v>
       </c>
       <c r="T8">
-        <v>0.005761311209839162</v>
+        <v>0.0001934487234131992</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.12370466321776</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H9">
-        <v>4.12370466321776</v>
+        <v>14.060415</v>
       </c>
       <c r="I9">
-        <v>0.4631549431818207</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J9">
-        <v>0.4631549431818207</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.06019270601575</v>
+        <v>5.722979333333332</v>
       </c>
       <c r="N9">
-        <v>1.06019270601575</v>
+        <v>17.168938</v>
       </c>
       <c r="O9">
-        <v>0.006882557575852624</v>
+        <v>0.0351939902968738</v>
       </c>
       <c r="P9">
-        <v>0.006882557575852624</v>
+        <v>0.03530184396657746</v>
       </c>
       <c r="Q9">
-        <v>4.371921605706604</v>
+        <v>26.82248815436333</v>
       </c>
       <c r="R9">
-        <v>4.371921605706604</v>
+        <v>241.40239338927</v>
       </c>
       <c r="S9">
-        <v>0.003187690562989632</v>
+        <v>0.01721766541783171</v>
       </c>
       <c r="T9">
-        <v>0.003187690562989632</v>
+        <v>0.01755597269568444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.462885498239035</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H10">
-        <v>0.462885498239035</v>
+        <v>14.060415</v>
       </c>
       <c r="I10">
-        <v>0.05198910303855286</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J10">
-        <v>0.05198910303855286</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>148.067422587639</v>
+        <v>1.951202</v>
       </c>
       <c r="N10">
-        <v>148.067422587639</v>
+        <v>5.853605999999999</v>
       </c>
       <c r="O10">
-        <v>0.9612238938119871</v>
+        <v>0.01199909701844822</v>
       </c>
       <c r="P10">
-        <v>0.9612238938119871</v>
+        <v>0.0120358688262385</v>
       </c>
       <c r="Q10">
-        <v>68.53826267744903</v>
+        <v>9.144903289609999</v>
       </c>
       <c r="R10">
-        <v>68.53826267744903</v>
+        <v>82.30412960648999</v>
       </c>
       <c r="S10">
-        <v>0.04997316805851039</v>
+        <v>0.00587021920609255</v>
       </c>
       <c r="T10">
-        <v>0.04997316805851039</v>
+        <v>0.005985562246616221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.462885498239035</v>
+        <v>4.686805000000001</v>
       </c>
       <c r="H11">
-        <v>0.462885498239035</v>
+        <v>14.060415</v>
       </c>
       <c r="I11">
-        <v>0.05198910303855286</v>
+        <v>0.4892217470254038</v>
       </c>
       <c r="J11">
-        <v>0.05198910303855286</v>
+        <v>0.4973103589802793</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.99674646997622</v>
+        <v>1.490433</v>
       </c>
       <c r="N11">
-        <v>2.99674646997622</v>
+        <v>2.980866</v>
       </c>
       <c r="O11">
-        <v>0.01945427468309524</v>
+        <v>0.009165555471189982</v>
       </c>
       <c r="P11">
-        <v>0.01945427468309524</v>
+        <v>0.006129095836753322</v>
       </c>
       <c r="Q11">
-        <v>1.387150482851012</v>
+        <v>6.985368836565002</v>
       </c>
       <c r="R11">
-        <v>1.387150482851012</v>
+        <v>41.91221301939001</v>
       </c>
       <c r="S11">
-        <v>0.001011410291039749</v>
+        <v>0.004483989060073811</v>
       </c>
       <c r="T11">
-        <v>0.001011410291039749</v>
+        <v>0.00304806285080033</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.462885498239035</v>
+        <v>0.467454</v>
       </c>
       <c r="H12">
-        <v>0.462885498239035</v>
+        <v>0.9349080000000001</v>
       </c>
       <c r="I12">
-        <v>0.05198910303855286</v>
+        <v>0.04879414921978045</v>
       </c>
       <c r="J12">
-        <v>0.05198910303855286</v>
+        <v>0.03306726245943202</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91615214872979</v>
+        <v>153.3847273333333</v>
       </c>
       <c r="N12">
-        <v>1.91615214872979</v>
+        <v>460.154182</v>
       </c>
       <c r="O12">
-        <v>0.01243927392906491</v>
+        <v>0.9432535557163702</v>
       </c>
       <c r="P12">
-        <v>0.01243927392906491</v>
+        <v>0.9461442014370421</v>
       </c>
       <c r="Q12">
-        <v>0.8869590420665864</v>
+        <v>71.70030433087601</v>
       </c>
       <c r="R12">
-        <v>0.8869590420665864</v>
+        <v>430.2018259852561</v>
       </c>
       <c r="S12">
-        <v>0.0006467066940229399</v>
+        <v>0.04602525474971306</v>
       </c>
       <c r="T12">
-        <v>0.0006467066940229399</v>
+        <v>0.03128639863338839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.467454</v>
+      </c>
+      <c r="H13">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J13">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06306133333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.189184</v>
+      </c>
+      <c r="O13">
+        <v>0.0003878014971178633</v>
+      </c>
+      <c r="P13">
+        <v>0.0003889899333885992</v>
+      </c>
+      <c r="Q13">
+        <v>0.029478272512</v>
+      </c>
+      <c r="R13">
+        <v>0.176869635072</v>
+      </c>
+      <c r="S13">
+        <v>1.892244411802328E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.286283222143779E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.462885498239035</v>
-      </c>
-      <c r="H13">
-        <v>0.462885498239035</v>
-      </c>
-      <c r="I13">
-        <v>0.05198910303855286</v>
-      </c>
-      <c r="J13">
-        <v>0.05198910303855286</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.06019270601575</v>
-      </c>
-      <c r="N13">
-        <v>1.06019270601575</v>
-      </c>
-      <c r="O13">
-        <v>0.006882557575852624</v>
-      </c>
-      <c r="P13">
-        <v>0.006882557575852624</v>
-      </c>
-      <c r="Q13">
-        <v>0.4907478289534913</v>
-      </c>
-      <c r="R13">
-        <v>0.4907478289534913</v>
-      </c>
-      <c r="S13">
-        <v>0.0003578179949797746</v>
-      </c>
-      <c r="T13">
-        <v>0.0003578179949797746</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.467454</v>
+      </c>
+      <c r="H14">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J14">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.722979333333332</v>
+      </c>
+      <c r="N14">
+        <v>17.168938</v>
+      </c>
+      <c r="O14">
+        <v>0.0351939902968738</v>
+      </c>
+      <c r="P14">
+        <v>0.03530184396657746</v>
+      </c>
+      <c r="Q14">
+        <v>2.675229581283999</v>
+      </c>
+      <c r="R14">
+        <v>16.051377487704</v>
+      </c>
+      <c r="S14">
+        <v>0.001717260814185165</v>
+      </c>
+      <c r="T14">
+        <v>0.001167335339744733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.467454</v>
+      </c>
+      <c r="H15">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J15">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.951202</v>
+      </c>
+      <c r="N15">
+        <v>5.853605999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.01199909701844822</v>
+      </c>
+      <c r="P15">
+        <v>0.0120358688262385</v>
+      </c>
+      <c r="Q15">
+        <v>0.9120971797079999</v>
+      </c>
+      <c r="R15">
+        <v>5.472583078247999</v>
+      </c>
+      <c r="S15">
+        <v>0.0005854857304207849</v>
+      </c>
+      <c r="T15">
+        <v>0.0003979932334045245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.467454</v>
+      </c>
+      <c r="H16">
+        <v>0.9349080000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04879414921978045</v>
+      </c>
+      <c r="J16">
+        <v>0.03306726245943202</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.490433</v>
+      </c>
+      <c r="N16">
+        <v>2.980866</v>
+      </c>
+      <c r="O16">
+        <v>0.009165555471189982</v>
+      </c>
+      <c r="P16">
+        <v>0.006129095836753322</v>
+      </c>
+      <c r="Q16">
+        <v>0.6967088675820001</v>
+      </c>
+      <c r="R16">
+        <v>2.786835470328</v>
+      </c>
+      <c r="S16">
+        <v>0.0004472254813434191</v>
+      </c>
+      <c r="T16">
+        <v>0.0002026724206729342</v>
       </c>
     </row>
   </sheetData>
